--- a/ENEM2019/dicionario.xlsx
+++ b/ENEM2019/dicionario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Rafaela\Documents\Data Science\Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Rafaela\Documents\Data Science\Data Analysis\DataAnalysis\ENEM2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF5F804-AA30-46D6-A791-696F93795D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF863E2-D993-4909-8D88-755CF328430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{2CF80D0F-71CC-471D-A965-BF1E1B1DA61D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>TP_FAIXA_ETARIA</t>
   </si>
@@ -340,13 +340,46 @@
   </si>
   <si>
     <t>Mais de R$ 19.960,00.</t>
+  </si>
+  <si>
+    <t>TP_ESCOLA</t>
+  </si>
+  <si>
+    <t>TP_ESCOLA_DEF</t>
+  </si>
+  <si>
+    <t>Não Respondeu</t>
+  </si>
+  <si>
+    <t>Pública</t>
+  </si>
+  <si>
+    <t>Privada</t>
+  </si>
+  <si>
+    <t>Exterior</t>
+  </si>
+  <si>
+    <t>PRESENCA</t>
+  </si>
+  <si>
+    <t>Faltou à prova</t>
+  </si>
+  <si>
+    <t>Presente na prova</t>
+  </si>
+  <si>
+    <t>Eliminado na prova</t>
+  </si>
+  <si>
+    <t>PRESENCA_DEF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,28 +388,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="7"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,7 +411,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -410,28 +434,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,577 +789,664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73271121-CC16-4A2D-8CC5-4894487D83E3}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="S1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="72" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="S3" s="3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" s="3">
+        <v>2</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="81" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="S4" s="3">
+        <v>3</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" s="3">
+        <v>3</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="54" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="S5" s="3">
+        <v>4</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" s="3">
+        <v>4</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
